--- a/forecast_summary_B0BZQ416QM.xlsx
+++ b/forecast_summary_B0BZQ416QM.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,19 +476,24 @@
           <t>Product Title</t>
         </is>
       </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>is_holiday_week</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>45627</v>
       </c>
       <c r="B2" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C2" t="n">
         <v>46.2959973395313</v>
       </c>
       <c r="D2" t="n">
-        <v>63.82252725151262</v>
+        <v>64.43186225442928</v>
       </c>
       <c r="E2" t="n">
         <v>45</v>
@@ -511,6 +516,9 @@
         <is>
           <t>H610M S2H</t>
         </is>
+      </c>
+      <c r="K2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -518,13 +526,13 @@
         <v>45634</v>
       </c>
       <c r="B3" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C3" t="n">
         <v>46.32160922577098</v>
       </c>
       <c r="D3" t="n">
-        <v>63.16709268979989</v>
+        <v>64.75847720060598</v>
       </c>
       <c r="E3" t="n">
         <v>45</v>
@@ -547,6 +555,9 @@
         <is>
           <t>H610M S2H</t>
         </is>
+      </c>
+      <c r="K3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -560,7 +571,7 @@
         <v>47.27168624027277</v>
       </c>
       <c r="D4" t="n">
-        <v>65.48472249580979</v>
+        <v>65.5323459146607</v>
       </c>
       <c r="E4" t="n">
         <v>47</v>
@@ -583,6 +594,9 @@
         <is>
           <t>H610M S2H</t>
         </is>
+      </c>
+      <c r="K4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -590,13 +604,13 @@
         <v>45648</v>
       </c>
       <c r="B5" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C5" t="n">
         <v>46.83010534533469</v>
       </c>
       <c r="D5" t="n">
-        <v>64.56544296895017</v>
+        <v>66.56091707037761</v>
       </c>
       <c r="E5" t="n">
         <v>40</v>
@@ -619,6 +633,9 @@
         <is>
           <t>H610M S2H</t>
         </is>
+      </c>
+      <c r="K5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -626,13 +643,13 @@
         <v>45655</v>
       </c>
       <c r="B6" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C6" t="n">
         <v>43.69255766131236</v>
       </c>
       <c r="D6" t="n">
-        <v>62.45553992485373</v>
+        <v>60.63588048382914</v>
       </c>
       <c r="E6" t="n">
         <v>36</v>
@@ -655,6 +672,9 @@
         <is>
           <t>H610M S2H</t>
         </is>
+      </c>
+      <c r="K6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -668,7 +688,7 @@
         <v>39.22986652800574</v>
       </c>
       <c r="D7" t="n">
-        <v>58.17289887505699</v>
+        <v>58.36270834131261</v>
       </c>
       <c r="E7" t="n">
         <v>38</v>
@@ -691,6 +711,9 @@
         <is>
           <t>H610M S2H</t>
         </is>
+      </c>
+      <c r="K7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -698,13 +721,13 @@
         <v>45669</v>
       </c>
       <c r="B8" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C8" t="n">
         <v>36.23348802965582</v>
       </c>
       <c r="D8" t="n">
-        <v>53.78558331817005</v>
+        <v>54.8528845356662</v>
       </c>
       <c r="E8" t="n">
         <v>37</v>
@@ -727,6 +750,9 @@
         <is>
           <t>H610M S2H</t>
         </is>
+      </c>
+      <c r="K8" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -734,13 +760,13 @@
         <v>45676</v>
       </c>
       <c r="B9" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C9" t="n">
         <v>36.28630899045933</v>
       </c>
       <c r="D9" t="n">
-        <v>54.87705773985984</v>
+        <v>53.67438101956709</v>
       </c>
       <c r="E9" t="n">
         <v>37</v>
@@ -763,6 +789,9 @@
         <is>
           <t>H610M S2H</t>
         </is>
+      </c>
+      <c r="K9" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -776,7 +805,7 @@
         <v>38.36461665701548</v>
       </c>
       <c r="D10" t="n">
-        <v>57.30329266129277</v>
+        <v>56.8613592749366</v>
       </c>
       <c r="E10" t="n">
         <v>36</v>
@@ -799,6 +828,9 @@
         <is>
           <t>H610M S2H</t>
         </is>
+      </c>
+      <c r="K10" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -812,7 +844,7 @@
         <v>39.77586702801061</v>
       </c>
       <c r="D11" t="n">
-        <v>57.13853858631542</v>
+        <v>58.99018554620088</v>
       </c>
       <c r="E11" t="n">
         <v>36</v>
@@ -835,6 +867,9 @@
         <is>
           <t>H610M S2H</t>
         </is>
+      </c>
+      <c r="K11" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -848,7 +883,7 @@
         <v>38.41136763069782</v>
       </c>
       <c r="D12" t="n">
-        <v>57.2969614150477</v>
+        <v>58.19177834125144</v>
       </c>
       <c r="E12" t="n">
         <v>37</v>
@@ -871,6 +906,9 @@
         <is>
           <t>H610M S2H</t>
         </is>
+      </c>
+      <c r="K12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -884,7 +922,7 @@
         <v>34.38814021225586</v>
       </c>
       <c r="D13" t="n">
-        <v>52.73946970459178</v>
+        <v>52.78272349405282</v>
       </c>
       <c r="E13" t="n">
         <v>37</v>
@@ -907,6 +945,9 @@
         <is>
           <t>H610M S2H</t>
         </is>
+      </c>
+      <c r="K13" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -920,7 +961,7 @@
         <v>29.80870944592023</v>
       </c>
       <c r="D14" t="n">
-        <v>48.22424657980145</v>
+        <v>48.34062403836612</v>
       </c>
       <c r="E14" t="n">
         <v>36</v>
@@ -943,6 +984,9 @@
         <is>
           <t>H610M S2H</t>
         </is>
+      </c>
+      <c r="K14" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -956,7 +1000,7 @@
         <v>26.86878654081914</v>
       </c>
       <c r="D15" t="n">
-        <v>43.51730303801837</v>
+        <v>45.66483848123693</v>
       </c>
       <c r="E15" t="n">
         <v>36</v>
@@ -979,6 +1023,9 @@
         <is>
           <t>H610M S2H</t>
         </is>
+      </c>
+      <c r="K15" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -986,13 +1033,13 @@
         <v>45725</v>
       </c>
       <c r="B16" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C16" t="n">
         <v>25.89876100555556</v>
       </c>
       <c r="D16" t="n">
-        <v>44.9144656662596</v>
+        <v>43.80075945544841</v>
       </c>
       <c r="E16" t="n">
         <v>35</v>
@@ -1015,6 +1062,9 @@
         <is>
           <t>H610M S2H</t>
         </is>
+      </c>
+      <c r="K16" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1022,13 +1072,13 @@
         <v>45732</v>
       </c>
       <c r="B17" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C17" t="n">
         <v>25.13884283919111</v>
       </c>
       <c r="D17" t="n">
-        <v>42.91080977118741</v>
+        <v>43.60988895908355</v>
       </c>
       <c r="E17" t="n">
         <v>34</v>
@@ -1051,6 +1101,9 @@
         <is>
           <t>H610M S2H</t>
         </is>
+      </c>
+      <c r="K17" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1064,7 +1117,7 @@
         <v>22.63319348068595</v>
       </c>
       <c r="D18" t="n">
-        <v>41.5191579960006</v>
+        <v>41.2901869645235</v>
       </c>
       <c r="E18" t="n">
         <v>34</v>
@@ -1087,6 +1140,9 @@
         <is>
           <t>H610M S2H</t>
         </is>
+      </c>
+      <c r="K18" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1100,7 +1156,7 @@
         <v>18.50504421069667</v>
       </c>
       <c r="D19" t="n">
-        <v>37.22666185606161</v>
+        <v>36.07320790490274</v>
       </c>
       <c r="E19" t="n">
         <v>33</v>
@@ -1123,6 +1179,9 @@
         <is>
           <t>H610M S2H</t>
         </is>
+      </c>
+      <c r="K19" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1130,13 +1189,13 @@
         <v>45753</v>
       </c>
       <c r="B20" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C20" t="n">
         <v>15.16389088619406</v>
       </c>
       <c r="D20" t="n">
-        <v>33.51336581773968</v>
+        <v>33.16839027250316</v>
       </c>
       <c r="E20" t="n">
         <v>35</v>
@@ -1159,6 +1218,9 @@
         <is>
           <t>H610M S2H</t>
         </is>
+      </c>
+      <c r="K20" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1172,7 +1234,7 @@
         <v>14.91434055458885</v>
       </c>
       <c r="D21" t="n">
-        <v>31.58003325030596</v>
+        <v>32.60907866651745</v>
       </c>
       <c r="E21" t="n">
         <v>33</v>
@@ -1195,6 +1257,9 @@
         <is>
           <t>H610M S2H</t>
         </is>
+      </c>
+      <c r="K21" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1320,7 +1385,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>718</t>
+          <t>720</t>
         </is>
       </c>
     </row>
@@ -1332,7 +1397,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>402</t>
         </is>
       </c>
     </row>
@@ -1344,7 +1409,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>215</t>
+          <t>218</t>
         </is>
       </c>
     </row>
@@ -1392,7 +1457,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-04-13</t>
+          <t>2025-04-06</t>
         </is>
       </c>
     </row>
